--- a/FJsp/doc/체크리스트.xlsx
+++ b/FJsp/doc/체크리스트.xlsx
@@ -70,7 +70,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트를 시행해서 오류를 수행할 수 있다.</t>
+    <t>테스트를 시행해서 오류를 수정할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +621,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
